--- a/data-raw/linder.wheat.xlsx
+++ b/data-raw/linder.wheat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AE4D9E-C6E8-4362-BDD4-3ABF8F31A32C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736DBD99-BD00-4C1C-986D-634E76D50EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="22020" windowHeight="9648" xr2:uid="{BBFCD68D-5C22-463C-9772-197A6044B209}"/>
+    <workbookView xWindow="3920" yWindow="2880" windowWidth="7590" windowHeight="8130" xr2:uid="{BBFCD68D-5C22-463C-9772-197A6044B209}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,9 +151,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -191,7 +191,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -297,7 +297,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -439,7 +439,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -453,9 +453,9 @@
       <selection activeCell="B26" sqref="B26:B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -525,7 +525,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -560,7 +560,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -595,7 +595,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -630,7 +630,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -665,7 +665,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -700,7 +700,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -735,7 +735,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -770,7 +770,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -805,7 +805,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -840,7 +840,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -875,7 +875,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -910,7 +910,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -945,7 +945,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -980,7 +980,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>4</v>
       </c>
